--- a/KINX6AC1.xlsx
+++ b/KINX6AC1.xlsx
@@ -17,43 +17,43 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
+    <t>lundi</t>
+  </si>
+  <si>
+    <t>Télécoms (KINX6AC1)</t>
+  </si>
+  <si>
+    <t>KINX6AC1</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>TYPE_AUTRE</t>
+  </si>
+  <si>
+    <t>mercredi</t>
+  </si>
+  <si>
+    <t>15:45</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>mardi</t>
+  </si>
+  <si>
+    <t>Télécoms (KINX6AC1) ()</t>
+  </si>
+  <si>
+    <t>Télécoms (KINX6AC1)  ()</t>
+  </si>
+  <si>
     <t>jeudi</t>
-  </si>
-  <si>
-    <t>Télécoms (KINX6AC1)</t>
-  </si>
-  <si>
-    <t>KINX6AC1</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>TYPE_AUTRE</t>
-  </si>
-  <si>
-    <t>samedi</t>
-  </si>
-  <si>
-    <t>15:45</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>vendredi</t>
-  </si>
-  <si>
-    <t>Télécoms (KINX6AC1) ()</t>
-  </si>
-  <si>
-    <t>Télécoms (KINX6AC1)  ()</t>
-  </si>
-  <si>
-    <t>dimanche</t>
   </si>
   <si>
     <t>Télécoms (KINX6AC1)   (JGT)</t>
@@ -146,7 +146,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44931.0</v>
+        <v>46027.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -177,7 +177,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
-        <v>44933.0</v>
+        <v>46029.0</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>7</v>
@@ -216,7 +216,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n" s="1">
-        <v>44938.0</v>
+        <v>46034.0</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>1</v>
@@ -247,7 +247,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n" s="1">
-        <v>44940.0</v>
+        <v>46036.0</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>7</v>
@@ -286,7 +286,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n" s="1">
-        <v>44945.0</v>
+        <v>46041.0</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>1</v>
@@ -317,7 +317,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n" s="1">
-        <v>44947.0</v>
+        <v>46043.0</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>7</v>
@@ -356,7 +356,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n" s="1">
-        <v>44953.0</v>
+        <v>46049.0</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>10</v>
@@ -387,7 +387,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n" s="1">
-        <v>44954.0</v>
+        <v>46050.0</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>7</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n" s="1">
-        <v>44960.0</v>
+        <v>46056.0</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>10</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n" s="1">
-        <v>44961.0</v>
+        <v>46057.0</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>7</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n" s="1">
-        <v>44962.0</v>
+        <v>46058.0</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>13</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="1">
-        <v>44967.0</v>
+        <v>46063.0</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>10</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n" s="1">
-        <v>44968.0</v>
+        <v>46064.0</v>
       </c>
       <c r="B31" t="s" s="0">
         <v>7</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n" s="1">
-        <v>44974.0</v>
+        <v>46070.0</v>
       </c>
       <c r="B36" t="s" s="0">
         <v>10</v>
@@ -697,7 +697,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n" s="1">
-        <v>44975.0</v>
+        <v>46071.0</v>
       </c>
       <c r="B39" t="s" s="0">
         <v>7</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n" s="1">
-        <v>44976.0</v>
+        <v>46072.0</v>
       </c>
       <c r="B43" t="s" s="0">
         <v>13</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n" s="1">
-        <v>44981.0</v>
+        <v>46077.0</v>
       </c>
       <c r="B46" t="s" s="0">
         <v>10</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n" s="1">
-        <v>44982.0</v>
+        <v>46078.0</v>
       </c>
       <c r="B48" t="s" s="0">
         <v>7</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n" s="1">
-        <v>44995.0</v>
+        <v>46091.0</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>10</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n" s="1">
-        <v>44996.0</v>
+        <v>46092.0</v>
       </c>
       <c r="B54" t="s" s="0">
         <v>7</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n" s="1">
-        <v>44997.0</v>
+        <v>46093.0</v>
       </c>
       <c r="B56" t="s" s="0">
         <v>13</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n" s="1">
-        <v>45003.0</v>
+        <v>46099.0</v>
       </c>
       <c r="B59" t="s" s="0">
         <v>7</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n" s="1">
-        <v>45009.0</v>
+        <v>46105.0</v>
       </c>
       <c r="B62" t="s" s="0">
         <v>10</v>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n" s="1">
-        <v>45010.0</v>
+        <v>46106.0</v>
       </c>
       <c r="B64" t="s" s="0">
         <v>7</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n" s="1">
-        <v>45016.0</v>
+        <v>46112.0</v>
       </c>
       <c r="B67" t="s" s="0">
         <v>10</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n" s="1">
-        <v>45037.0</v>
+        <v>46133.0</v>
       </c>
       <c r="B70" t="s" s="0">
         <v>10</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n" s="1">
-        <v>45050.0</v>
+        <v>46146.0</v>
       </c>
       <c r="B73" t="s" s="0">
         <v>1</v>
@@ -1225,7 +1225,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n" s="1">
-        <v>45051.0</v>
+        <v>46147.0</v>
       </c>
       <c r="B75" t="s" s="0">
         <v>10</v>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n" s="1">
-        <v>45052.0</v>
+        <v>46148.0</v>
       </c>
       <c r="B77" t="s" s="0">
         <v>7</v>
